--- a/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6909EA3E-B13F-4C60-A760-816CA49F9FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABBF995-99EB-47A6-B0C4-164102606F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="31">
   <si>
     <t>SR.NO.</t>
   </si>
@@ -81,28 +81,46 @@
     <t>+1</t>
   </si>
   <si>
-    <t>+</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>+12</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>+212</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>+21</t>
   </si>
   <si>
     <t xml:space="preserve">+ </t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>VK</t>
-  </si>
-  <si>
-    <t>KJ</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>OD</t>
   </si>
   <si>
     <t>Standard: FYJC (11th Standard)</t>
@@ -850,73 +868,89 @@
         <f t="shared" ref="G3:G9" si="1">C3-D3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="14" t="str">
         <f t="shared" ref="K3:K9" si="2">SUBSTITUTE(TRIM(CONCATENATE(I3, "", J3)),"+ 0"," ")</f>
-        <v>+</v>
+        <v>2+1</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" ref="L3:L9" si="3">H3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P3" s="14" t="str">
         <f t="shared" ref="P3:P9" si="4">SUBSTITUTE(TRIM(CONCATENATE(N3, "", O3)),"+ 0"," ")</f>
-        <v>+</v>
+        <v>12+2</v>
       </c>
       <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q9" si="5">M3-N3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="7"/>
+      <c r="R3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="T3" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U3" s="14" t="str">
         <f t="shared" ref="U3:U9" si="6">SUBSTITUTE(TRIM(CONCATENATE(S3, "", T3)),"+ 0"," ")</f>
-        <v>+</v>
+        <v>12+1</v>
       </c>
       <c r="V3" s="15">
         <f t="shared" ref="V3:V9" si="7">R3-S3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
+        <v>-10</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="Y3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z3" s="14" t="str">
         <f t="shared" ref="Z3:Z9" si="8">SUBSTITUTE(TRIM(CONCATENATE(X3, "", Y3)),"+ 0"," ")</f>
-        <v>+</v>
+        <v>1+12</v>
       </c>
       <c r="AA3" s="15">
         <f t="shared" ref="AA3:AA9" si="9">W3-X3</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="16">
         <f t="shared" ref="AB3:AC9" si="10">C3+H3+M3+R3+W3</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AC3" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AD3" s="17">
         <f t="shared" ref="AD3:AD9" si="11">IFERROR(VALUE(MID(E4,2,3)),0) + IFERROR(VALUE(MID(J4,2,3)),0) + IFERROR(VALUE(MID(O4,2,3)),0) + IFERROR(VALUE(MID(T4,2,3)),0) + IFERROR(VALUE(MID(Y4,2,3)),0)</f>
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="AE3" s="14" t="str">
         <f t="shared" ref="AE3:AE9" si="12">CONCATENATE(MID(AC3,1,3)," + ", MID(AD3,1,2))</f>
-        <v>1 + 1</v>
+        <v>28 + 22</v>
       </c>
       <c r="AF3" s="15">
         <f t="shared" ref="AF3:AF9" si="13">G3+L3+Q3+V3+AA3</f>
@@ -928,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -947,77 +981,93 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>1+212</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P4" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>+</v>
+        <v>1+1</v>
       </c>
       <c r="Q4" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="T4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U4" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>+</v>
+        <v>2+12</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Y4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z4" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>+</v>
+        <v>21+2</v>
       </c>
       <c r="AA4" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AE4" s="14" t="str">
         <f t="shared" si="12"/>
-        <v>1 + 1</v>
+        <v>26 + 27</v>
       </c>
       <c r="AF4" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
@@ -1025,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -1044,77 +1094,93 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>12+12</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
+        <v>-10</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P5" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>+</v>
+        <v>2+1</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
+      <c r="R5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="T5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U5" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>+</v>
+        <v>2+12</v>
       </c>
       <c r="V5" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="Y5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z5" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>+</v>
+        <v>1+1</v>
       </c>
       <c r="AA5" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AE5" s="14" t="str">
         <f t="shared" si="12"/>
-        <v>1 + 1</v>
+        <v>18 + 18</v>
       </c>
       <c r="AF5" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
@@ -1122,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -1141,53 +1207,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>12+12</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P6" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>+</v>
+        <v>2+2</v>
       </c>
       <c r="Q6" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="T6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U6" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>+</v>
+        <v>1+2</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="7"/>
+      <c r="W6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Y6" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z6" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>+</v>
+        <v>2+1</v>
       </c>
       <c r="AA6" s="15">
         <f t="shared" si="9"/>
@@ -1195,23 +1277,23 @@
       </c>
       <c r="AB6" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AC6" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AD6" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE6" s="14" t="str">
         <f t="shared" si="12"/>
-        <v>1 + 1</v>
+        <v>18 + 6</v>
       </c>
       <c r="AF6" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -1219,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -1238,77 +1320,93 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>1+1</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P7" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>+</v>
+        <v>1+2</v>
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
+      <c r="R7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="T7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U7" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>+</v>
+        <v>1+1</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Y7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>+</v>
+        <v>2+1</v>
       </c>
       <c r="AA7" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB7" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD7" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AE7" s="14" t="str">
         <f t="shared" si="12"/>
-        <v>1 + 1</v>
+        <v>6 + 17</v>
       </c>
       <c r="AF7" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -1316,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
@@ -1335,77 +1433,93 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>2+1</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P8" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>+</v>
+        <v>2+12</v>
       </c>
       <c r="Q8" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
+      <c r="R8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="T8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U8" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>+</v>
+        <v>2+1</v>
       </c>
       <c r="V8" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
+      <c r="W8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="Y8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z8" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>+</v>
+        <v>2+2</v>
       </c>
       <c r="AA8" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD8" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AE8" s="14" t="str">
         <f t="shared" si="12"/>
-        <v>1 + 1</v>
+        <v>9 + 27</v>
       </c>
       <c r="AF8" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1413,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
@@ -1432,53 +1546,69 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>21+2</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
+        <v>-20</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P9" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>+</v>
+        <v>1+21</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="7"/>
+      <c r="R9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="T9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U9" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>+</v>
+        <v>2+2</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="7"/>
+        <v>-1</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="Y9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z9" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>+</v>
+        <v>1+1</v>
       </c>
       <c r="AA9" s="15">
         <f t="shared" si="9"/>
@@ -1486,11 +1616,11 @@
       </c>
       <c r="AB9" s="16">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC9" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AD9" s="17">
         <f t="shared" si="11"/>
@@ -1498,11 +1628,11 @@
       </c>
       <c r="AE9" s="14" t="str">
         <f t="shared" si="12"/>
-        <v>1 + 0</v>
+        <v>26 + 0</v>
       </c>
       <c r="AF9" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -1550,7 +1680,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F11" s="22" t="str">
         <f>CONCATENATE(D11, " ", E11)</f>
@@ -1566,7 +1696,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K11" s="22" t="str">
         <f>CONCATENATE(I11, " ", J11)</f>
@@ -1582,7 +1712,7 @@
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P11" s="22" t="str">
         <f>CONCATENATE(N11, " ", O11)</f>
@@ -1598,7 +1728,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="U11" s="22" t="str">
         <f>CONCATENATE(S11, "", T11)</f>
@@ -1614,7 +1744,7 @@
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Z11" s="22" t="str">
         <f>CONCATENATE(X11, " ", Y11)</f>
@@ -1647,7 +1777,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABBF995-99EB-47A6-B0C4-164102606F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62C67D-1DD9-4051-B775-38A55B5FA053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62C67D-1DD9-4051-B775-38A55B5FA053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E62105F-C3A6-4D9D-9381-2F8BB13B6C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E62105F-C3A6-4D9D-9381-2F8BB13B6C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ADED7A-B3D8-45B0-B101-260B4F473C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ADED7A-B3D8-45B0-B101-260B4F473C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1FE70-730E-4BA6-A469-2BEFA69D502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1FE70-730E-4BA6-A469-2BEFA69D502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1711D8F-83ED-45D4-9A5C-086CC7E08634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term1_FYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1711D8F-83ED-45D4-9A5C-086CC7E08634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937F6053-4517-4B8B-8501-C8992EADC704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
